--- a/xlsx_files/Neste-1.xlsx
+++ b/xlsx_files/Neste-1.xlsx
@@ -717,14 +717,6 @@
           <t>Warehouse Storekeeper</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[SGD]
-Min:2200.0
-Max:3200.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -760,14 +752,6 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>Technician</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[SGD]
-Min:1800.0
-Max:3800.0
-type:monthly</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1789,14 +1773,6 @@
           <t>Technician</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[SGD]
-Min:1900.0
-Max:3800.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -1926,14 +1902,6 @@
           <t>Operating Engineer</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[SGD]
-Min:4500.0
-Max:7000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -2171,14 +2139,6 @@
       <c r="D24" t="inlineStr">
         <is>
           <t>Electrical Engineer</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>[SGD]
-Min:5950.0
-Max:9200.0
-type:monthly</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2349,14 +2309,6 @@
           <t>Electrical &amp; Instrumentation Field Engineer</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>[SGD]
-Min:4500.0
-Max:7000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -2444,14 +2396,6 @@
           <t>Production Maintenance Coordinator</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>[SGD]
-Min:3400.0
-Max:5300.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -2525,14 +2469,6 @@
       <c r="D28" t="inlineStr">
         <is>
           <t>E&amp;I Planner (Maintenance)</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>[SGD]
-Min:4500.0
-Max:7000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
